--- a/Dataset_xlsx/diagn_title.xlsx
+++ b/Dataset_xlsx/diagn_title.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Progetto ICon\Dataset\Dataset_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\ICon\Dataset_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4794,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="G595" sqref="G595"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1229" sqref="B1229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dataset_xlsx/diagn_title.xlsx
+++ b/Dataset_xlsx/diagn_title.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Progetto ICon\Dataset\Dataset_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\ICon\Dataset_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="id" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1315">
   <si>
     <t>id</t>
   </si>
@@ -3961,6 +3961,9 @@
   </si>
   <si>
     <t>Premature ejaculation</t>
+  </si>
+  <si>
+    <t>categoria</t>
   </si>
 </sst>
 </file>
@@ -4792,23 +4795,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1313"/>
+  <dimension ref="A1:C1313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="G595" sqref="G595"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="96" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4816,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4824,7 +4833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4832,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4840,7 +4849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4848,7 +4857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4856,7 +4865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4864,7 +4873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -4872,7 +4881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -4880,7 +4889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -4888,7 +4897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -4896,7 +4905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24</v>
       </c>
@@ -4904,7 +4913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26</v>
       </c>
@@ -4912,7 +4921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31</v>
       </c>

--- a/Dataset_xlsx/diagn_title.xlsx
+++ b/Dataset_xlsx/diagn_title.xlsx
@@ -3966,13 +3966,13 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>Superiore</t>
-  </si>
-  <si>
-    <t>Generale</t>
-  </si>
-  <si>
-    <t>Inferiore</t>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>Gen</t>
   </si>
 </sst>
 </file>
@@ -4806,7 +4806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1305" workbookViewId="0">
       <selection activeCell="C1314" sqref="C1314"/>
     </sheetView>
   </sheetViews>
@@ -4857,7 +4857,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4868,7 +4868,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4901,7 +4901,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4967,7 +4967,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4978,7 +4978,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5022,7 +5022,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5033,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5044,7 +5044,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5055,7 +5055,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5066,7 +5066,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5077,7 +5077,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5088,7 +5088,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5143,7 +5143,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5154,7 +5154,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5176,7 +5176,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5187,7 +5187,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5198,7 +5198,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5209,7 +5209,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -5231,7 +5231,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5242,7 +5242,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5253,7 +5253,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -5275,7 +5275,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -5286,7 +5286,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -5330,7 +5330,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5374,7 +5374,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5415,7 +5415,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5481,7 +5481,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -5558,7 +5558,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -5591,7 +5591,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -5624,7 +5624,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -5646,7 +5646,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -5657,7 +5657,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -5668,7 +5668,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -5679,7 +5679,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -5701,7 +5701,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -5745,7 +5745,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -5756,7 +5756,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -5789,7 +5789,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -5800,7 +5800,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -5811,7 +5811,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -5844,7 +5844,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -5855,7 +5855,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -5866,7 +5866,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -5877,7 +5877,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -5888,7 +5888,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -5932,7 +5932,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -5943,7 +5943,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -5954,7 +5954,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -5965,7 +5965,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -5987,7 +5987,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -6031,7 +6031,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -6075,7 +6075,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -6152,7 +6152,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -6185,7 +6185,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -6196,7 +6196,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -6207,7 +6207,7 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -6240,7 +6240,7 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -6251,7 +6251,7 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -6262,7 +6262,7 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -6273,7 +6273,7 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -6284,7 +6284,7 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -6295,7 +6295,7 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -6350,7 +6350,7 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -6361,7 +6361,7 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -6383,7 +6383,7 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -6449,7 +6449,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -6460,7 +6460,7 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -6482,7 +6482,7 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -6515,7 +6515,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -6548,7 +6548,7 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -6559,7 +6559,7 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -6592,7 +6592,7 @@
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -6603,7 +6603,7 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -6614,7 +6614,7 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -6647,7 +6647,7 @@
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -6669,7 +6669,7 @@
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -6691,7 +6691,7 @@
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -6702,7 +6702,7 @@
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -6713,7 +6713,7 @@
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -6724,7 +6724,7 @@
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -6735,7 +6735,7 @@
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -6757,7 +6757,7 @@
         <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -6768,7 +6768,7 @@
         <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -6779,7 +6779,7 @@
         <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -6801,7 +6801,7 @@
         <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -6812,7 +6812,7 @@
         <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -6823,7 +6823,7 @@
         <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -6834,7 +6834,7 @@
         <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -6856,7 +6856,7 @@
         <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -6867,7 +6867,7 @@
         <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -6878,7 +6878,7 @@
         <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -6922,7 +6922,7 @@
         <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -6933,7 +6933,7 @@
         <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -6944,7 +6944,7 @@
         <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -6966,7 +6966,7 @@
         <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -6977,7 +6977,7 @@
         <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -6988,7 +6988,7 @@
         <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -6999,7 +6999,7 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -7032,7 +7032,7 @@
         <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -7065,7 +7065,7 @@
         <v>205</v>
       </c>
       <c r="C205" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>206</v>
       </c>
       <c r="C206" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -7087,7 +7087,7 @@
         <v>207</v>
       </c>
       <c r="C207" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
         <v>209</v>
       </c>
       <c r="C209" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -7164,7 +7164,7 @@
         <v>214</v>
       </c>
       <c r="C214" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -7175,7 +7175,7 @@
         <v>215</v>
       </c>
       <c r="C215" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -7230,7 +7230,7 @@
         <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -7241,7 +7241,7 @@
         <v>221</v>
       </c>
       <c r="C221" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -7252,7 +7252,7 @@
         <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -7263,7 +7263,7 @@
         <v>223</v>
       </c>
       <c r="C223" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -7329,7 +7329,7 @@
         <v>229</v>
       </c>
       <c r="C229" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -7340,7 +7340,7 @@
         <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -7362,7 +7362,7 @@
         <v>232</v>
       </c>
       <c r="C232" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -7373,7 +7373,7 @@
         <v>233</v>
       </c>
       <c r="C233" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -7384,7 +7384,7 @@
         <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -7395,7 +7395,7 @@
         <v>235</v>
       </c>
       <c r="C235" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -7439,7 +7439,7 @@
         <v>239</v>
       </c>
       <c r="C239" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -7450,7 +7450,7 @@
         <v>240</v>
       </c>
       <c r="C240" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -7472,7 +7472,7 @@
         <v>242</v>
       </c>
       <c r="C242" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -7483,7 +7483,7 @@
         <v>243</v>
       </c>
       <c r="C243" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -7538,7 +7538,7 @@
         <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -7593,7 +7593,7 @@
         <v>253</v>
       </c>
       <c r="C253" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -7604,7 +7604,7 @@
         <v>254</v>
       </c>
       <c r="C254" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -7637,7 +7637,7 @@
         <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -7670,7 +7670,7 @@
         <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -7714,7 +7714,7 @@
         <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -7725,7 +7725,7 @@
         <v>265</v>
       </c>
       <c r="C265" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -7791,7 +7791,7 @@
         <v>271</v>
       </c>
       <c r="C271" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -7813,7 +7813,7 @@
         <v>273</v>
       </c>
       <c r="C273" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -7824,7 +7824,7 @@
         <v>274</v>
       </c>
       <c r="C274" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -7868,7 +7868,7 @@
         <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -7879,7 +7879,7 @@
         <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -7890,7 +7890,7 @@
         <v>280</v>
       </c>
       <c r="C280" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -7912,7 +7912,7 @@
         <v>282</v>
       </c>
       <c r="C282" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -7923,7 +7923,7 @@
         <v>283</v>
       </c>
       <c r="C283" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -7934,7 +7934,7 @@
         <v>284</v>
       </c>
       <c r="C284" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -7945,7 +7945,7 @@
         <v>285</v>
       </c>
       <c r="C285" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -8000,7 +8000,7 @@
         <v>290</v>
       </c>
       <c r="C290" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -8044,7 +8044,7 @@
         <v>294</v>
       </c>
       <c r="C294" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -8099,7 +8099,7 @@
         <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -8110,7 +8110,7 @@
         <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
         <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -8132,7 +8132,7 @@
         <v>302</v>
       </c>
       <c r="C302" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>304</v>
       </c>
       <c r="C304" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -8165,7 +8165,7 @@
         <v>305</v>
       </c>
       <c r="C305" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -8176,7 +8176,7 @@
         <v>306</v>
       </c>
       <c r="C306" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -8187,7 +8187,7 @@
         <v>307</v>
       </c>
       <c r="C307" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -8209,7 +8209,7 @@
         <v>309</v>
       </c>
       <c r="C309" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -8220,7 +8220,7 @@
         <v>310</v>
       </c>
       <c r="C310" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -8231,7 +8231,7 @@
         <v>311</v>
       </c>
       <c r="C311" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -8253,7 +8253,7 @@
         <v>313</v>
       </c>
       <c r="C313" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -8286,7 +8286,7 @@
         <v>316</v>
       </c>
       <c r="C316" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -8330,7 +8330,7 @@
         <v>320</v>
       </c>
       <c r="C320" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -8341,7 +8341,7 @@
         <v>321</v>
       </c>
       <c r="C321" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -8352,7 +8352,7 @@
         <v>322</v>
       </c>
       <c r="C322" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -8363,7 +8363,7 @@
         <v>323</v>
       </c>
       <c r="C323" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -8385,7 +8385,7 @@
         <v>325</v>
       </c>
       <c r="C325" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -8396,7 +8396,7 @@
         <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -8418,7 +8418,7 @@
         <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -8440,7 +8440,7 @@
         <v>330</v>
       </c>
       <c r="C330" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -8462,7 +8462,7 @@
         <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -8473,7 +8473,7 @@
         <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -8517,7 +8517,7 @@
         <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -8528,7 +8528,7 @@
         <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -8550,7 +8550,7 @@
         <v>340</v>
       </c>
       <c r="C340" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -8594,7 +8594,7 @@
         <v>344</v>
       </c>
       <c r="C344" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -8616,7 +8616,7 @@
         <v>346</v>
       </c>
       <c r="C346" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -8627,7 +8627,7 @@
         <v>347</v>
       </c>
       <c r="C347" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -8638,7 +8638,7 @@
         <v>348</v>
       </c>
       <c r="C348" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -8649,7 +8649,7 @@
         <v>349</v>
       </c>
       <c r="C349" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -8660,7 +8660,7 @@
         <v>350</v>
       </c>
       <c r="C350" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -8671,7 +8671,7 @@
         <v>351</v>
       </c>
       <c r="C351" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -8682,7 +8682,7 @@
         <v>352</v>
       </c>
       <c r="C352" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>353</v>
       </c>
       <c r="C353" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -8704,7 +8704,7 @@
         <v>354</v>
       </c>
       <c r="C354" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -8726,7 +8726,7 @@
         <v>356</v>
       </c>
       <c r="C356" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -8781,7 +8781,7 @@
         <v>361</v>
       </c>
       <c r="C361" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -8792,7 +8792,7 @@
         <v>362</v>
       </c>
       <c r="C362" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -8803,7 +8803,7 @@
         <v>363</v>
       </c>
       <c r="C363" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -8825,7 +8825,7 @@
         <v>365</v>
       </c>
       <c r="C365" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -8836,7 +8836,7 @@
         <v>366</v>
       </c>
       <c r="C366" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -8847,7 +8847,7 @@
         <v>367</v>
       </c>
       <c r="C367" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -8869,7 +8869,7 @@
         <v>369</v>
       </c>
       <c r="C369" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -8880,7 +8880,7 @@
         <v>370</v>
       </c>
       <c r="C370" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -8891,7 +8891,7 @@
         <v>371</v>
       </c>
       <c r="C371" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -8902,7 +8902,7 @@
         <v>372</v>
       </c>
       <c r="C372" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -8913,7 +8913,7 @@
         <v>373</v>
       </c>
       <c r="C373" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -8935,7 +8935,7 @@
         <v>375</v>
       </c>
       <c r="C375" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -9045,7 +9045,7 @@
         <v>385</v>
       </c>
       <c r="C385" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -9067,7 +9067,7 @@
         <v>387</v>
       </c>
       <c r="C387" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -9089,7 +9089,7 @@
         <v>389</v>
       </c>
       <c r="C389" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -9100,7 +9100,7 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -9111,7 +9111,7 @@
         <v>391</v>
       </c>
       <c r="C391" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -9122,7 +9122,7 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -9133,7 +9133,7 @@
         <v>393</v>
       </c>
       <c r="C393" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -9144,7 +9144,7 @@
         <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -9188,7 +9188,7 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -9254,7 +9254,7 @@
         <v>404</v>
       </c>
       <c r="C404" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -9265,7 +9265,7 @@
         <v>405</v>
       </c>
       <c r="C405" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -9276,7 +9276,7 @@
         <v>406</v>
       </c>
       <c r="C406" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -9287,7 +9287,7 @@
         <v>407</v>
       </c>
       <c r="C407" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -9298,7 +9298,7 @@
         <v>408</v>
       </c>
       <c r="C408" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -9309,7 +9309,7 @@
         <v>409</v>
       </c>
       <c r="C409" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -9320,7 +9320,7 @@
         <v>410</v>
       </c>
       <c r="C410" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -9342,7 +9342,7 @@
         <v>412</v>
       </c>
       <c r="C412" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -9353,7 +9353,7 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -9375,7 +9375,7 @@
         <v>415</v>
       </c>
       <c r="C415" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -9386,7 +9386,7 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -9408,7 +9408,7 @@
         <v>418</v>
       </c>
       <c r="C418" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -9419,7 +9419,7 @@
         <v>419</v>
       </c>
       <c r="C419" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -9430,7 +9430,7 @@
         <v>420</v>
       </c>
       <c r="C420" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -9441,7 +9441,7 @@
         <v>421</v>
       </c>
       <c r="C421" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -9452,7 +9452,7 @@
         <v>422</v>
       </c>
       <c r="C422" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -9485,7 +9485,7 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -9518,7 +9518,7 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -9529,7 +9529,7 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -9540,7 +9540,7 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -9606,7 +9606,7 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -9617,7 +9617,7 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -9672,7 +9672,7 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -9683,7 +9683,7 @@
         <v>443</v>
       </c>
       <c r="C443" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -9716,7 +9716,7 @@
         <v>446</v>
       </c>
       <c r="C446" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -9738,7 +9738,7 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -9749,7 +9749,7 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -9760,7 +9760,7 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -9771,7 +9771,7 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -9782,7 +9782,7 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -9826,7 +9826,7 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -9837,7 +9837,7 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -9848,7 +9848,7 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -9870,7 +9870,7 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -9892,7 +9892,7 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -9903,7 +9903,7 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -9914,7 +9914,7 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -9925,7 +9925,7 @@
         <v>465</v>
       </c>
       <c r="C465" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -9947,7 +9947,7 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -9969,7 +9969,7 @@
         <v>469</v>
       </c>
       <c r="C469" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -9980,7 +9980,7 @@
         <v>470</v>
       </c>
       <c r="C470" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -9991,7 +9991,7 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -10002,7 +10002,7 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -10013,7 +10013,7 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -10024,7 +10024,7 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -10035,7 +10035,7 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -10046,7 +10046,7 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -10057,7 +10057,7 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -10068,7 +10068,7 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -10079,7 +10079,7 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -10090,7 +10090,7 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -10101,7 +10101,7 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -10145,7 +10145,7 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -10222,7 +10222,7 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -10233,7 +10233,7 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -10244,7 +10244,7 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -10255,7 +10255,7 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -10277,7 +10277,7 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -10288,7 +10288,7 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -10299,7 +10299,7 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -10321,7 +10321,7 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -10365,7 +10365,7 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -10376,7 +10376,7 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -10387,7 +10387,7 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -10409,7 +10409,7 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -10420,7 +10420,7 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -10453,7 +10453,7 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -10464,7 +10464,7 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -10486,7 +10486,7 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -10552,7 +10552,7 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -10574,7 +10574,7 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -10585,7 +10585,7 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -10596,7 +10596,7 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -10607,7 +10607,7 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -10618,7 +10618,7 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -10673,7 +10673,7 @@
         <v>533</v>
       </c>
       <c r="C533" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -10684,7 +10684,7 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -10706,7 +10706,7 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -10728,7 +10728,7 @@
         <v>538</v>
       </c>
       <c r="C538" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -10739,7 +10739,7 @@
         <v>539</v>
       </c>
       <c r="C539" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -10750,7 +10750,7 @@
         <v>540</v>
       </c>
       <c r="C540" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -10761,7 +10761,7 @@
         <v>541</v>
       </c>
       <c r="C541" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -10772,7 +10772,7 @@
         <v>542</v>
       </c>
       <c r="C542" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -10783,7 +10783,7 @@
         <v>543</v>
       </c>
       <c r="C543" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -10794,7 +10794,7 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -10860,7 +10860,7 @@
         <v>550</v>
       </c>
       <c r="C550" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -10871,7 +10871,7 @@
         <v>551</v>
       </c>
       <c r="C551" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -10926,7 +10926,7 @@
         <v>556</v>
       </c>
       <c r="C556" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -10937,7 +10937,7 @@
         <v>557</v>
       </c>
       <c r="C557" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -10948,7 +10948,7 @@
         <v>558</v>
       </c>
       <c r="C558" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -10959,7 +10959,7 @@
         <v>559</v>
       </c>
       <c r="C559" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -10970,7 +10970,7 @@
         <v>560</v>
       </c>
       <c r="C560" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -11003,7 +11003,7 @@
         <v>563</v>
       </c>
       <c r="C563" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -11025,7 +11025,7 @@
         <v>565</v>
       </c>
       <c r="C565" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -11113,7 +11113,7 @@
         <v>573</v>
       </c>
       <c r="C573" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -11179,7 +11179,7 @@
         <v>579</v>
       </c>
       <c r="C579" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -11190,7 +11190,7 @@
         <v>580</v>
       </c>
       <c r="C580" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -11234,7 +11234,7 @@
         <v>584</v>
       </c>
       <c r="C584" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -11245,7 +11245,7 @@
         <v>585</v>
       </c>
       <c r="C585" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -11267,7 +11267,7 @@
         <v>587</v>
       </c>
       <c r="C587" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -11278,7 +11278,7 @@
         <v>588</v>
       </c>
       <c r="C588" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -11333,7 +11333,7 @@
         <v>593</v>
       </c>
       <c r="C593" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -11355,7 +11355,7 @@
         <v>595</v>
       </c>
       <c r="C595" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -11366,7 +11366,7 @@
         <v>596</v>
       </c>
       <c r="C596" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -11377,7 +11377,7 @@
         <v>597</v>
       </c>
       <c r="C597" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -11388,7 +11388,7 @@
         <v>598</v>
       </c>
       <c r="C598" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -11421,7 +11421,7 @@
         <v>601</v>
       </c>
       <c r="C601" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -11443,7 +11443,7 @@
         <v>603</v>
       </c>
       <c r="C603" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -11476,7 +11476,7 @@
         <v>606</v>
       </c>
       <c r="C606" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -11498,7 +11498,7 @@
         <v>608</v>
       </c>
       <c r="C608" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -11509,7 +11509,7 @@
         <v>609</v>
       </c>
       <c r="C609" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -11531,7 +11531,7 @@
         <v>611</v>
       </c>
       <c r="C611" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -11542,7 +11542,7 @@
         <v>612</v>
       </c>
       <c r="C612" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -11553,7 +11553,7 @@
         <v>613</v>
       </c>
       <c r="C613" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -11564,7 +11564,7 @@
         <v>614</v>
       </c>
       <c r="C614" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -11575,7 +11575,7 @@
         <v>615</v>
       </c>
       <c r="C615" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -11586,7 +11586,7 @@
         <v>616</v>
       </c>
       <c r="C616" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -11641,7 +11641,7 @@
         <v>621</v>
       </c>
       <c r="C621" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -11652,7 +11652,7 @@
         <v>622</v>
       </c>
       <c r="C622" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -11663,7 +11663,7 @@
         <v>623</v>
       </c>
       <c r="C623" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -11674,7 +11674,7 @@
         <v>624</v>
       </c>
       <c r="C624" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -11685,7 +11685,7 @@
         <v>625</v>
       </c>
       <c r="C625" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -11751,7 +11751,7 @@
         <v>631</v>
       </c>
       <c r="C631" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -11762,7 +11762,7 @@
         <v>632</v>
       </c>
       <c r="C632" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -11784,7 +11784,7 @@
         <v>634</v>
       </c>
       <c r="C634" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -11795,7 +11795,7 @@
         <v>635</v>
       </c>
       <c r="C635" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -11806,7 +11806,7 @@
         <v>636</v>
       </c>
       <c r="C636" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -11817,7 +11817,7 @@
         <v>637</v>
       </c>
       <c r="C637" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -11828,7 +11828,7 @@
         <v>638</v>
       </c>
       <c r="C638" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -11850,7 +11850,7 @@
         <v>640</v>
       </c>
       <c r="C640" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -11872,7 +11872,7 @@
         <v>642</v>
       </c>
       <c r="C642" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -11894,7 +11894,7 @@
         <v>644</v>
       </c>
       <c r="C644" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -11905,7 +11905,7 @@
         <v>645</v>
       </c>
       <c r="C645" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -11927,7 +11927,7 @@
         <v>647</v>
       </c>
       <c r="C647" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -11938,7 +11938,7 @@
         <v>648</v>
       </c>
       <c r="C648" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -11960,7 +11960,7 @@
         <v>650</v>
       </c>
       <c r="C650" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -11993,7 +11993,7 @@
         <v>653</v>
       </c>
       <c r="C653" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -12004,7 +12004,7 @@
         <v>654</v>
       </c>
       <c r="C654" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -12026,7 +12026,7 @@
         <v>656</v>
       </c>
       <c r="C656" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -12059,7 +12059,7 @@
         <v>659</v>
       </c>
       <c r="C659" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -12191,7 +12191,7 @@
         <v>671</v>
       </c>
       <c r="C671" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -12202,7 +12202,7 @@
         <v>672</v>
       </c>
       <c r="C672" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -12213,7 +12213,7 @@
         <v>673</v>
       </c>
       <c r="C673" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -12224,7 +12224,7 @@
         <v>674</v>
       </c>
       <c r="C674" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -12246,7 +12246,7 @@
         <v>676</v>
       </c>
       <c r="C676" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -12290,7 +12290,7 @@
         <v>680</v>
       </c>
       <c r="C680" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -12323,7 +12323,7 @@
         <v>683</v>
       </c>
       <c r="C683" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -12334,7 +12334,7 @@
         <v>684</v>
       </c>
       <c r="C684" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -12345,7 +12345,7 @@
         <v>685</v>
       </c>
       <c r="C685" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -12367,7 +12367,7 @@
         <v>687</v>
       </c>
       <c r="C687" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -12378,7 +12378,7 @@
         <v>688</v>
       </c>
       <c r="C688" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -12389,7 +12389,7 @@
         <v>689</v>
       </c>
       <c r="C689" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -12411,7 +12411,7 @@
         <v>691</v>
       </c>
       <c r="C691" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -12433,7 +12433,7 @@
         <v>693</v>
       </c>
       <c r="C693" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -12444,7 +12444,7 @@
         <v>694</v>
       </c>
       <c r="C694" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -12466,7 +12466,7 @@
         <v>696</v>
       </c>
       <c r="C696" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
@@ -12477,7 +12477,7 @@
         <v>697</v>
       </c>
       <c r="C697" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -12488,7 +12488,7 @@
         <v>698</v>
       </c>
       <c r="C698" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -12499,7 +12499,7 @@
         <v>699</v>
       </c>
       <c r="C699" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
@@ -12510,7 +12510,7 @@
         <v>700</v>
       </c>
       <c r="C700" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
@@ -12532,7 +12532,7 @@
         <v>702</v>
       </c>
       <c r="C702" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
@@ -12565,7 +12565,7 @@
         <v>705</v>
       </c>
       <c r="C705" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
@@ -12576,7 +12576,7 @@
         <v>706</v>
       </c>
       <c r="C706" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
@@ -12609,7 +12609,7 @@
         <v>709</v>
       </c>
       <c r="C709" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
@@ -12620,7 +12620,7 @@
         <v>710</v>
       </c>
       <c r="C710" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
@@ -12653,7 +12653,7 @@
         <v>713</v>
       </c>
       <c r="C713" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
@@ -12675,7 +12675,7 @@
         <v>715</v>
       </c>
       <c r="C715" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
@@ -12686,7 +12686,7 @@
         <v>716</v>
       </c>
       <c r="C716" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -12697,7 +12697,7 @@
         <v>717</v>
       </c>
       <c r="C717" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -12708,7 +12708,7 @@
         <v>718</v>
       </c>
       <c r="C718" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -12741,7 +12741,7 @@
         <v>721</v>
       </c>
       <c r="C721" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
@@ -12752,7 +12752,7 @@
         <v>722</v>
       </c>
       <c r="C722" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
@@ -12774,7 +12774,7 @@
         <v>724</v>
       </c>
       <c r="C724" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
@@ -12785,7 +12785,7 @@
         <v>725</v>
       </c>
       <c r="C725" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
@@ -12796,7 +12796,7 @@
         <v>726</v>
       </c>
       <c r="C726" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
@@ -12818,7 +12818,7 @@
         <v>728</v>
       </c>
       <c r="C728" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
@@ -12840,7 +12840,7 @@
         <v>730</v>
       </c>
       <c r="C730" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
@@ -12851,7 +12851,7 @@
         <v>731</v>
       </c>
       <c r="C731" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
@@ -12862,7 +12862,7 @@
         <v>732</v>
       </c>
       <c r="C732" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
@@ -12950,7 +12950,7 @@
         <v>740</v>
       </c>
       <c r="C740" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -12961,7 +12961,7 @@
         <v>741</v>
       </c>
       <c r="C741" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -12972,7 +12972,7 @@
         <v>742</v>
       </c>
       <c r="C742" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -12983,7 +12983,7 @@
         <v>743</v>
       </c>
       <c r="C743" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
@@ -13005,7 +13005,7 @@
         <v>745</v>
       </c>
       <c r="C745" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
@@ -13016,7 +13016,7 @@
         <v>746</v>
       </c>
       <c r="C746" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
@@ -13027,7 +13027,7 @@
         <v>747</v>
       </c>
       <c r="C747" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
@@ -13038,7 +13038,7 @@
         <v>748</v>
       </c>
       <c r="C748" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
@@ -13071,7 +13071,7 @@
         <v>751</v>
       </c>
       <c r="C751" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
@@ -13104,7 +13104,7 @@
         <v>754</v>
       </c>
       <c r="C754" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
@@ -13115,7 +13115,7 @@
         <v>755</v>
       </c>
       <c r="C755" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
@@ -13148,7 +13148,7 @@
         <v>758</v>
       </c>
       <c r="C758" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
@@ -13170,7 +13170,7 @@
         <v>760</v>
       </c>
       <c r="C760" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
@@ -13181,7 +13181,7 @@
         <v>761</v>
       </c>
       <c r="C761" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
@@ -13192,7 +13192,7 @@
         <v>762</v>
       </c>
       <c r="C762" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
@@ -13291,7 +13291,7 @@
         <v>771</v>
       </c>
       <c r="C771" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
@@ -13302,7 +13302,7 @@
         <v>772</v>
       </c>
       <c r="C772" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
@@ -13313,7 +13313,7 @@
         <v>773</v>
       </c>
       <c r="C773" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
@@ -13324,7 +13324,7 @@
         <v>774</v>
       </c>
       <c r="C774" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
@@ -13335,7 +13335,7 @@
         <v>775</v>
       </c>
       <c r="C775" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
@@ -13357,7 +13357,7 @@
         <v>777</v>
       </c>
       <c r="C777" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
@@ -13390,7 +13390,7 @@
         <v>780</v>
       </c>
       <c r="C780" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
@@ -13412,7 +13412,7 @@
         <v>782</v>
       </c>
       <c r="C782" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
@@ -13423,7 +13423,7 @@
         <v>783</v>
       </c>
       <c r="C783" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
@@ -13434,7 +13434,7 @@
         <v>784</v>
       </c>
       <c r="C784" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
@@ -13456,7 +13456,7 @@
         <v>786</v>
       </c>
       <c r="C786" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
@@ -13467,7 +13467,7 @@
         <v>787</v>
       </c>
       <c r="C787" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
@@ -13478,7 +13478,7 @@
         <v>788</v>
       </c>
       <c r="C788" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
@@ -13511,7 +13511,7 @@
         <v>791</v>
       </c>
       <c r="C791" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
@@ -13522,7 +13522,7 @@
         <v>792</v>
       </c>
       <c r="C792" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
@@ -13533,7 +13533,7 @@
         <v>793</v>
       </c>
       <c r="C793" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
@@ -13544,7 +13544,7 @@
         <v>794</v>
       </c>
       <c r="C794" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
@@ -13555,7 +13555,7 @@
         <v>795</v>
       </c>
       <c r="C795" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
@@ -13599,7 +13599,7 @@
         <v>799</v>
       </c>
       <c r="C799" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
@@ -13610,7 +13610,7 @@
         <v>800</v>
       </c>
       <c r="C800" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
@@ -13621,7 +13621,7 @@
         <v>801</v>
       </c>
       <c r="C801" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
@@ -13632,7 +13632,7 @@
         <v>802</v>
       </c>
       <c r="C802" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
@@ -13687,7 +13687,7 @@
         <v>807</v>
       </c>
       <c r="C807" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
@@ -13698,7 +13698,7 @@
         <v>808</v>
       </c>
       <c r="C808" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
@@ -13709,7 +13709,7 @@
         <v>809</v>
       </c>
       <c r="C809" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
@@ -13731,7 +13731,7 @@
         <v>811</v>
       </c>
       <c r="C811" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
@@ -13742,7 +13742,7 @@
         <v>812</v>
       </c>
       <c r="C812" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
@@ -13797,7 +13797,7 @@
         <v>817</v>
       </c>
       <c r="C817" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
@@ -13808,7 +13808,7 @@
         <v>818</v>
       </c>
       <c r="C818" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
@@ -13819,7 +13819,7 @@
         <v>819</v>
       </c>
       <c r="C819" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
@@ -13830,7 +13830,7 @@
         <v>820</v>
       </c>
       <c r="C820" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
@@ -13841,7 +13841,7 @@
         <v>821</v>
       </c>
       <c r="C821" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
@@ -13852,7 +13852,7 @@
         <v>822</v>
       </c>
       <c r="C822" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
@@ -13896,7 +13896,7 @@
         <v>826</v>
       </c>
       <c r="C826" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
@@ -13929,7 +13929,7 @@
         <v>829</v>
       </c>
       <c r="C829" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
@@ -13940,7 +13940,7 @@
         <v>830</v>
       </c>
       <c r="C830" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
@@ -13984,7 +13984,7 @@
         <v>834</v>
       </c>
       <c r="C834" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
@@ -14050,7 +14050,7 @@
         <v>840</v>
       </c>
       <c r="C840" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
@@ -14061,7 +14061,7 @@
         <v>841</v>
       </c>
       <c r="C841" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
@@ -14072,7 +14072,7 @@
         <v>842</v>
       </c>
       <c r="C842" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
@@ -14083,7 +14083,7 @@
         <v>843</v>
       </c>
       <c r="C843" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
@@ -14094,7 +14094,7 @@
         <v>844</v>
       </c>
       <c r="C844" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
@@ -14105,7 +14105,7 @@
         <v>845</v>
       </c>
       <c r="C845" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
@@ -14149,7 +14149,7 @@
         <v>849</v>
       </c>
       <c r="C849" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.3">
@@ -14182,7 +14182,7 @@
         <v>852</v>
       </c>
       <c r="C852" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
@@ -14193,7 +14193,7 @@
         <v>853</v>
       </c>
       <c r="C853" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.3">
@@ -14215,7 +14215,7 @@
         <v>855</v>
       </c>
       <c r="C855" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.3">
@@ -14226,7 +14226,7 @@
         <v>856</v>
       </c>
       <c r="C856" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.3">
@@ -14259,7 +14259,7 @@
         <v>859</v>
       </c>
       <c r="C859" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
@@ -14270,7 +14270,7 @@
         <v>860</v>
       </c>
       <c r="C860" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.3">
@@ -14292,7 +14292,7 @@
         <v>862</v>
       </c>
       <c r="C862" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.3">
@@ -14303,7 +14303,7 @@
         <v>863</v>
       </c>
       <c r="C863" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.3">
@@ -14336,7 +14336,7 @@
         <v>866</v>
       </c>
       <c r="C866" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.3">
@@ -14347,7 +14347,7 @@
         <v>867</v>
       </c>
       <c r="C867" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
@@ -14358,7 +14358,7 @@
         <v>868</v>
       </c>
       <c r="C868" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
@@ -14413,7 +14413,7 @@
         <v>873</v>
       </c>
       <c r="C873" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.3">
@@ -14457,7 +14457,7 @@
         <v>877</v>
       </c>
       <c r="C877" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
@@ -14468,7 +14468,7 @@
         <v>878</v>
       </c>
       <c r="C878" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
@@ -14501,7 +14501,7 @@
         <v>881</v>
       </c>
       <c r="C881" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
@@ -14523,7 +14523,7 @@
         <v>883</v>
       </c>
       <c r="C883" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
@@ -14534,7 +14534,7 @@
         <v>884</v>
       </c>
       <c r="C884" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
@@ -14556,7 +14556,7 @@
         <v>886</v>
       </c>
       <c r="C886" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.3">
@@ -14567,7 +14567,7 @@
         <v>887</v>
       </c>
       <c r="C887" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.3">
@@ -14578,7 +14578,7 @@
         <v>888</v>
       </c>
       <c r="C888" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.3">
@@ -14589,7 +14589,7 @@
         <v>889</v>
       </c>
       <c r="C889" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.3">
@@ -14600,7 +14600,7 @@
         <v>890</v>
       </c>
       <c r="C890" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.3">
@@ -14633,7 +14633,7 @@
         <v>893</v>
       </c>
       <c r="C893" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
@@ -14644,7 +14644,7 @@
         <v>894</v>
       </c>
       <c r="C894" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
@@ -14655,7 +14655,7 @@
         <v>895</v>
       </c>
       <c r="C895" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
@@ -14677,7 +14677,7 @@
         <v>897</v>
       </c>
       <c r="C897" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
@@ -14721,7 +14721,7 @@
         <v>901</v>
       </c>
       <c r="C901" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
@@ -14732,7 +14732,7 @@
         <v>902</v>
       </c>
       <c r="C902" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
@@ -14743,7 +14743,7 @@
         <v>903</v>
       </c>
       <c r="C903" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.3">
@@ -14864,7 +14864,7 @@
         <v>914</v>
       </c>
       <c r="C914" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.3">
@@ -14875,7 +14875,7 @@
         <v>915</v>
       </c>
       <c r="C915" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.3">
@@ -14897,7 +14897,7 @@
         <v>917</v>
       </c>
       <c r="C917" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.3">
@@ -14930,7 +14930,7 @@
         <v>920</v>
       </c>
       <c r="C920" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.3">
@@ -14941,7 +14941,7 @@
         <v>921</v>
       </c>
       <c r="C921" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.3">
@@ -14963,7 +14963,7 @@
         <v>923</v>
       </c>
       <c r="C923" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
@@ -14974,7 +14974,7 @@
         <v>924</v>
       </c>
       <c r="C924" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.3">
@@ -14985,7 +14985,7 @@
         <v>925</v>
       </c>
       <c r="C925" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.3">
@@ -14996,7 +14996,7 @@
         <v>926</v>
       </c>
       <c r="C926" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
@@ -15029,7 +15029,7 @@
         <v>929</v>
       </c>
       <c r="C929" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
@@ -15040,7 +15040,7 @@
         <v>930</v>
       </c>
       <c r="C930" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
@@ -15051,7 +15051,7 @@
         <v>931</v>
       </c>
       <c r="C931" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
@@ -15062,7 +15062,7 @@
         <v>932</v>
       </c>
       <c r="C932" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.3">
@@ -15073,7 +15073,7 @@
         <v>933</v>
       </c>
       <c r="C933" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
@@ -15084,7 +15084,7 @@
         <v>934</v>
       </c>
       <c r="C934" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.3">
@@ -15095,7 +15095,7 @@
         <v>935</v>
       </c>
       <c r="C935" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.3">
@@ -15106,7 +15106,7 @@
         <v>936</v>
       </c>
       <c r="C936" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.3">
@@ -15117,7 +15117,7 @@
         <v>937</v>
       </c>
       <c r="C937" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.3">
@@ -15128,7 +15128,7 @@
         <v>938</v>
       </c>
       <c r="C938" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.3">
@@ -15150,7 +15150,7 @@
         <v>940</v>
       </c>
       <c r="C940" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.3">
@@ -15161,7 +15161,7 @@
         <v>941</v>
       </c>
       <c r="C941" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.3">
@@ -15172,7 +15172,7 @@
         <v>942</v>
       </c>
       <c r="C942" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.3">
@@ -15194,7 +15194,7 @@
         <v>944</v>
       </c>
       <c r="C944" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.3">
@@ -15216,7 +15216,7 @@
         <v>946</v>
       </c>
       <c r="C946" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.3">
@@ -15227,7 +15227,7 @@
         <v>947</v>
       </c>
       <c r="C947" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
@@ -15238,7 +15238,7 @@
         <v>948</v>
       </c>
       <c r="C948" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.3">
@@ -15249,7 +15249,7 @@
         <v>949</v>
       </c>
       <c r="C949" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.3">
@@ -15271,7 +15271,7 @@
         <v>951</v>
       </c>
       <c r="C951" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.3">
@@ -15282,7 +15282,7 @@
         <v>952</v>
       </c>
       <c r="C952" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.3">
@@ -15293,7 +15293,7 @@
         <v>953</v>
       </c>
       <c r="C953" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
@@ -15315,7 +15315,7 @@
         <v>955</v>
       </c>
       <c r="C955" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.3">
@@ -15348,7 +15348,7 @@
         <v>958</v>
       </c>
       <c r="C958" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
@@ -15359,7 +15359,7 @@
         <v>959</v>
       </c>
       <c r="C959" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.3">
@@ -15381,7 +15381,7 @@
         <v>961</v>
       </c>
       <c r="C961" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.3">
@@ -15392,7 +15392,7 @@
         <v>962</v>
       </c>
       <c r="C962" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.3">
@@ -15436,7 +15436,7 @@
         <v>966</v>
       </c>
       <c r="C966" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.3">
@@ -15469,7 +15469,7 @@
         <v>969</v>
       </c>
       <c r="C969" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.3">
@@ -15502,7 +15502,7 @@
         <v>972</v>
       </c>
       <c r="C972" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.3">
@@ -15524,7 +15524,7 @@
         <v>974</v>
       </c>
       <c r="C974" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.3">
@@ -15535,7 +15535,7 @@
         <v>975</v>
       </c>
       <c r="C975" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.3">
@@ -15546,7 +15546,7 @@
         <v>976</v>
       </c>
       <c r="C976" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.3">
@@ -15568,7 +15568,7 @@
         <v>978</v>
       </c>
       <c r="C978" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.3">
@@ -15612,7 +15612,7 @@
         <v>982</v>
       </c>
       <c r="C982" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.3">
@@ -15623,7 +15623,7 @@
         <v>983</v>
       </c>
       <c r="C983" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.3">
@@ -15634,7 +15634,7 @@
         <v>984</v>
       </c>
       <c r="C984" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.3">
@@ -15656,7 +15656,7 @@
         <v>986</v>
       </c>
       <c r="C986" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.3">
@@ -15678,7 +15678,7 @@
         <v>988</v>
       </c>
       <c r="C988" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.3">
@@ -15700,7 +15700,7 @@
         <v>990</v>
       </c>
       <c r="C990" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.3">
@@ -15711,7 +15711,7 @@
         <v>991</v>
       </c>
       <c r="C991" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.3">
@@ -15722,7 +15722,7 @@
         <v>992</v>
       </c>
       <c r="C992" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
@@ -15744,7 +15744,7 @@
         <v>994</v>
       </c>
       <c r="C994" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.3">
@@ -15755,7 +15755,7 @@
         <v>995</v>
       </c>
       <c r="C995" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.3">
@@ -15788,7 +15788,7 @@
         <v>998</v>
       </c>
       <c r="C998" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.3">
@@ -15810,7 +15810,7 @@
         <v>1000</v>
       </c>
       <c r="C1000" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
@@ -15821,7 +15821,7 @@
         <v>1001</v>
       </c>
       <c r="C1001" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
@@ -15854,7 +15854,7 @@
         <v>1004</v>
       </c>
       <c r="C1004" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
@@ -15865,7 +15865,7 @@
         <v>1005</v>
       </c>
       <c r="C1005" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
@@ -15876,7 +15876,7 @@
         <v>1006</v>
       </c>
       <c r="C1006" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
@@ -15887,7 +15887,7 @@
         <v>1007</v>
       </c>
       <c r="C1007" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
@@ -15898,7 +15898,7 @@
         <v>1008</v>
       </c>
       <c r="C1008" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
@@ -15909,7 +15909,7 @@
         <v>1009</v>
       </c>
       <c r="C1009" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
@@ -15920,7 +15920,7 @@
         <v>1010</v>
       </c>
       <c r="C1010" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
@@ -15942,7 +15942,7 @@
         <v>1012</v>
       </c>
       <c r="C1012" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
@@ -15953,7 +15953,7 @@
         <v>1013</v>
       </c>
       <c r="C1013" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
@@ -15964,7 +15964,7 @@
         <v>1014</v>
       </c>
       <c r="C1014" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
@@ -15986,7 +15986,7 @@
         <v>1016</v>
       </c>
       <c r="C1016" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
@@ -16030,7 +16030,7 @@
         <v>1020</v>
       </c>
       <c r="C1020" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
@@ -16074,7 +16074,7 @@
         <v>1024</v>
       </c>
       <c r="C1024" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
@@ -16085,7 +16085,7 @@
         <v>1025</v>
       </c>
       <c r="C1025" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
@@ -16096,7 +16096,7 @@
         <v>1026</v>
       </c>
       <c r="C1026" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
@@ -16107,7 +16107,7 @@
         <v>1027</v>
       </c>
       <c r="C1027" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
@@ -16118,7 +16118,7 @@
         <v>1028</v>
       </c>
       <c r="C1028" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
@@ -16129,7 +16129,7 @@
         <v>1029</v>
       </c>
       <c r="C1029" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
@@ -16173,7 +16173,7 @@
         <v>1033</v>
       </c>
       <c r="C1033" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
@@ -16206,7 +16206,7 @@
         <v>1036</v>
       </c>
       <c r="C1036" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
@@ -16228,7 +16228,7 @@
         <v>1038</v>
       </c>
       <c r="C1038" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
@@ -16239,7 +16239,7 @@
         <v>1039</v>
       </c>
       <c r="C1039" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
@@ -16250,7 +16250,7 @@
         <v>1040</v>
       </c>
       <c r="C1040" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
@@ -16272,7 +16272,7 @@
         <v>1042</v>
       </c>
       <c r="C1042" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
@@ -16294,7 +16294,7 @@
         <v>1044</v>
       </c>
       <c r="C1044" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.3">
@@ -16305,7 +16305,7 @@
         <v>1045</v>
       </c>
       <c r="C1045" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
@@ -16360,7 +16360,7 @@
         <v>1050</v>
       </c>
       <c r="C1050" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.3">
@@ -16371,7 +16371,7 @@
         <v>1051</v>
       </c>
       <c r="C1051" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.3">
@@ -16437,7 +16437,7 @@
         <v>1057</v>
       </c>
       <c r="C1057" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.3">
@@ -16481,7 +16481,7 @@
         <v>1061</v>
       </c>
       <c r="C1061" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.3">
@@ -16492,7 +16492,7 @@
         <v>1062</v>
       </c>
       <c r="C1062" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.3">
@@ -16503,7 +16503,7 @@
         <v>1063</v>
       </c>
       <c r="C1063" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.3">
@@ -16525,7 +16525,7 @@
         <v>1065</v>
       </c>
       <c r="C1065" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.3">
@@ -16558,7 +16558,7 @@
         <v>1068</v>
       </c>
       <c r="C1068" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
@@ -16580,7 +16580,7 @@
         <v>1070</v>
       </c>
       <c r="C1070" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
@@ -16591,7 +16591,7 @@
         <v>1071</v>
       </c>
       <c r="C1071" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.3">
@@ -16613,7 +16613,7 @@
         <v>1073</v>
       </c>
       <c r="C1073" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.3">
@@ -16624,7 +16624,7 @@
         <v>1074</v>
       </c>
       <c r="C1074" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.3">
@@ -16635,7 +16635,7 @@
         <v>1075</v>
       </c>
       <c r="C1075" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.3">
@@ -16646,7 +16646,7 @@
         <v>1076</v>
       </c>
       <c r="C1076" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.3">
@@ -16657,7 +16657,7 @@
         <v>1077</v>
       </c>
       <c r="C1077" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.3">
@@ -16690,7 +16690,7 @@
         <v>1080</v>
       </c>
       <c r="C1080" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
@@ -16701,7 +16701,7 @@
         <v>1081</v>
       </c>
       <c r="C1081" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
@@ -16712,7 +16712,7 @@
         <v>1082</v>
       </c>
       <c r="C1082" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
@@ -16723,7 +16723,7 @@
         <v>1083</v>
       </c>
       <c r="C1083" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
@@ -16734,7 +16734,7 @@
         <v>1084</v>
       </c>
       <c r="C1084" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
@@ -16756,7 +16756,7 @@
         <v>1086</v>
       </c>
       <c r="C1086" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
@@ -16778,7 +16778,7 @@
         <v>1088</v>
       </c>
       <c r="C1088" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.3">
@@ -16800,7 +16800,7 @@
         <v>1090</v>
       </c>
       <c r="C1090" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.3">
@@ -16811,7 +16811,7 @@
         <v>1091</v>
       </c>
       <c r="C1091" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.3">
@@ -16822,7 +16822,7 @@
         <v>1092</v>
       </c>
       <c r="C1092" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.3">
@@ -16833,7 +16833,7 @@
         <v>1093</v>
       </c>
       <c r="C1093" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.3">
@@ -16855,7 +16855,7 @@
         <v>1095</v>
       </c>
       <c r="C1095" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.3">
@@ -16877,7 +16877,7 @@
         <v>1097</v>
       </c>
       <c r="C1097" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
@@ -16888,7 +16888,7 @@
         <v>1098</v>
       </c>
       <c r="C1098" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.3">
@@ -16954,7 +16954,7 @@
         <v>1104</v>
       </c>
       <c r="C1104" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.3">
@@ -16998,7 +16998,7 @@
         <v>1108</v>
       </c>
       <c r="C1108" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.3">
@@ -17009,7 +17009,7 @@
         <v>1109</v>
       </c>
       <c r="C1109" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.3">
@@ -17064,7 +17064,7 @@
         <v>1114</v>
       </c>
       <c r="C1114" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.3">
@@ -17086,7 +17086,7 @@
         <v>1116</v>
       </c>
       <c r="C1116" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.3">
@@ -17097,7 +17097,7 @@
         <v>1117</v>
       </c>
       <c r="C1117" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.3">
@@ -17141,7 +17141,7 @@
         <v>1121</v>
       </c>
       <c r="C1121" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.3">
@@ -17174,7 +17174,7 @@
         <v>1124</v>
       </c>
       <c r="C1124" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
@@ -17185,7 +17185,7 @@
         <v>1125</v>
       </c>
       <c r="C1125" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
@@ -17207,7 +17207,7 @@
         <v>1127</v>
       </c>
       <c r="C1127" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
@@ -17218,7 +17218,7 @@
         <v>1128</v>
       </c>
       <c r="C1128" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
@@ -17229,7 +17229,7 @@
         <v>1129</v>
       </c>
       <c r="C1129" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
@@ -17251,7 +17251,7 @@
         <v>1131</v>
       </c>
       <c r="C1131" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
@@ -17262,7 +17262,7 @@
         <v>1132</v>
       </c>
       <c r="C1132" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
@@ -17273,7 +17273,7 @@
         <v>1133</v>
       </c>
       <c r="C1133" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
@@ -17350,7 +17350,7 @@
         <v>1140</v>
       </c>
       <c r="C1140" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
@@ -17361,7 +17361,7 @@
         <v>1141</v>
       </c>
       <c r="C1141" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
@@ -17394,7 +17394,7 @@
         <v>1144</v>
       </c>
       <c r="C1144" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
@@ -17416,7 +17416,7 @@
         <v>1146</v>
       </c>
       <c r="C1146" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
@@ -17427,7 +17427,7 @@
         <v>1147</v>
       </c>
       <c r="C1147" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
@@ -17449,7 +17449,7 @@
         <v>1149</v>
       </c>
       <c r="C1149" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
@@ -17460,7 +17460,7 @@
         <v>1150</v>
       </c>
       <c r="C1150" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
@@ -17471,7 +17471,7 @@
         <v>1151</v>
       </c>
       <c r="C1151" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
@@ -17493,7 +17493,7 @@
         <v>1153</v>
       </c>
       <c r="C1153" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
@@ -17504,7 +17504,7 @@
         <v>1154</v>
       </c>
       <c r="C1154" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
@@ -17515,7 +17515,7 @@
         <v>1155</v>
       </c>
       <c r="C1155" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
@@ -17526,7 +17526,7 @@
         <v>1156</v>
       </c>
       <c r="C1156" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
@@ -17537,7 +17537,7 @@
         <v>1157</v>
       </c>
       <c r="C1157" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
@@ -17548,7 +17548,7 @@
         <v>1158</v>
       </c>
       <c r="C1158" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
@@ -17559,7 +17559,7 @@
         <v>1159</v>
       </c>
       <c r="C1159" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
@@ -17614,7 +17614,7 @@
         <v>1164</v>
       </c>
       <c r="C1164" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
@@ -17625,7 +17625,7 @@
         <v>1165</v>
       </c>
       <c r="C1165" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
@@ -17636,7 +17636,7 @@
         <v>1166</v>
       </c>
       <c r="C1166" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
@@ -17713,7 +17713,7 @@
         <v>1173</v>
       </c>
       <c r="C1173" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
@@ -17724,7 +17724,7 @@
         <v>1174</v>
       </c>
       <c r="C1174" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
@@ -17746,7 +17746,7 @@
         <v>1176</v>
       </c>
       <c r="C1176" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
@@ -17790,7 +17790,7 @@
         <v>1180</v>
       </c>
       <c r="C1180" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
         <v>1184</v>
       </c>
       <c r="C1184" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
@@ -17856,7 +17856,7 @@
         <v>1186</v>
       </c>
       <c r="C1186" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
@@ -17889,7 +17889,7 @@
         <v>1189</v>
       </c>
       <c r="C1189" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
@@ -17900,7 +17900,7 @@
         <v>1190</v>
       </c>
       <c r="C1190" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
@@ -17911,7 +17911,7 @@
         <v>1191</v>
       </c>
       <c r="C1191" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
@@ -17944,7 +17944,7 @@
         <v>1194</v>
       </c>
       <c r="C1194" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
@@ -17999,7 +17999,7 @@
         <v>1199</v>
       </c>
       <c r="C1199" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
@@ -18010,7 +18010,7 @@
         <v>1200</v>
       </c>
       <c r="C1200" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.3">
@@ -18021,7 +18021,7 @@
         <v>1201</v>
       </c>
       <c r="C1201" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.3">
@@ -18032,7 +18032,7 @@
         <v>1202</v>
       </c>
       <c r="C1202" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.3">
@@ -18043,7 +18043,7 @@
         <v>1203</v>
       </c>
       <c r="C1203" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.3">
@@ -18054,7 +18054,7 @@
         <v>1204</v>
       </c>
       <c r="C1204" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.3">
@@ -18065,7 +18065,7 @@
         <v>1205</v>
       </c>
       <c r="C1205" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.3">
@@ -18076,7 +18076,7 @@
         <v>1206</v>
       </c>
       <c r="C1206" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.3">
@@ -18098,7 +18098,7 @@
         <v>1208</v>
       </c>
       <c r="C1208" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.3">
@@ -18109,7 +18109,7 @@
         <v>1209</v>
       </c>
       <c r="C1209" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.3">
@@ -18131,7 +18131,7 @@
         <v>1211</v>
       </c>
       <c r="C1211" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.3">
@@ -18142,7 +18142,7 @@
         <v>1212</v>
       </c>
       <c r="C1212" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.3">
@@ -18153,7 +18153,7 @@
         <v>1213</v>
       </c>
       <c r="C1213" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.3">
@@ -18175,7 +18175,7 @@
         <v>1215</v>
       </c>
       <c r="C1215" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.3">
@@ -18186,7 +18186,7 @@
         <v>1216</v>
       </c>
       <c r="C1216" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.3">
@@ -18197,7 +18197,7 @@
         <v>1217</v>
       </c>
       <c r="C1217" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.3">
@@ -18219,7 +18219,7 @@
         <v>1219</v>
       </c>
       <c r="C1219" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.3">
@@ -18241,7 +18241,7 @@
         <v>1221</v>
       </c>
       <c r="C1221" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.3">
@@ -18252,7 +18252,7 @@
         <v>1222</v>
       </c>
       <c r="C1222" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.3">
@@ -18274,7 +18274,7 @@
         <v>1224</v>
       </c>
       <c r="C1224" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.3">
@@ -18351,7 +18351,7 @@
         <v>1231</v>
       </c>
       <c r="C1231" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.3">
@@ -18439,7 +18439,7 @@
         <v>1239</v>
       </c>
       <c r="C1239" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
@@ -18450,7 +18450,7 @@
         <v>1240</v>
       </c>
       <c r="C1240" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
@@ -18461,7 +18461,7 @@
         <v>1241</v>
       </c>
       <c r="C1241" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.3">
@@ -18483,7 +18483,7 @@
         <v>1243</v>
       </c>
       <c r="C1243" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
@@ -18494,7 +18494,7 @@
         <v>1244</v>
       </c>
       <c r="C1244" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
@@ -18516,7 +18516,7 @@
         <v>1246</v>
       </c>
       <c r="C1246" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
@@ -18560,7 +18560,7 @@
         <v>1250</v>
       </c>
       <c r="C1250" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
@@ -18571,7 +18571,7 @@
         <v>1251</v>
       </c>
       <c r="C1251" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
@@ -18582,7 +18582,7 @@
         <v>1252</v>
       </c>
       <c r="C1252" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
@@ -18604,7 +18604,7 @@
         <v>1254</v>
       </c>
       <c r="C1254" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
@@ -18648,7 +18648,7 @@
         <v>1258</v>
       </c>
       <c r="C1258" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
@@ -18659,7 +18659,7 @@
         <v>1259</v>
       </c>
       <c r="C1259" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
@@ -18692,7 +18692,7 @@
         <v>1262</v>
       </c>
       <c r="C1262" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
@@ -18703,7 +18703,7 @@
         <v>1263</v>
       </c>
       <c r="C1263" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
@@ -18714,7 +18714,7 @@
         <v>1264</v>
       </c>
       <c r="C1264" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.3">
@@ -18725,7 +18725,7 @@
         <v>1265</v>
       </c>
       <c r="C1265" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.3">
@@ -18758,7 +18758,7 @@
         <v>1268</v>
       </c>
       <c r="C1268" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.3">
@@ -18769,7 +18769,7 @@
         <v>1269</v>
       </c>
       <c r="C1269" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.3">
@@ -18780,7 +18780,7 @@
         <v>1270</v>
       </c>
       <c r="C1270" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.3">
@@ -18802,7 +18802,7 @@
         <v>1272</v>
       </c>
       <c r="C1272" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.3">
@@ -18813,7 +18813,7 @@
         <v>1273</v>
       </c>
       <c r="C1273" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.3">
@@ -18901,7 +18901,7 @@
         <v>1281</v>
       </c>
       <c r="C1281" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.3">
@@ -18923,7 +18923,7 @@
         <v>1283</v>
       </c>
       <c r="C1283" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.3">
@@ -18978,7 +18978,7 @@
         <v>1288</v>
       </c>
       <c r="C1288" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
@@ -18989,7 +18989,7 @@
         <v>1289</v>
       </c>
       <c r="C1289" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
@@ -19000,7 +19000,7 @@
         <v>1290</v>
       </c>
       <c r="C1290" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.3">
@@ -19033,7 +19033,7 @@
         <v>1293</v>
       </c>
       <c r="C1293" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.3">
@@ -19055,7 +19055,7 @@
         <v>1295</v>
       </c>
       <c r="C1295" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.3">
@@ -19066,7 +19066,7 @@
         <v>1296</v>
       </c>
       <c r="C1296" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.3">
@@ -19121,7 +19121,7 @@
         <v>1301</v>
       </c>
       <c r="C1301" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.3">
@@ -19132,7 +19132,7 @@
         <v>1302</v>
       </c>
       <c r="C1302" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.3">
@@ -19143,7 +19143,7 @@
         <v>1303</v>
       </c>
       <c r="C1303" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.3">
@@ -19154,7 +19154,7 @@
         <v>1304</v>
       </c>
       <c r="C1304" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.3">
@@ -19165,7 +19165,7 @@
         <v>1305</v>
       </c>
       <c r="C1305" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.3">
@@ -19176,7 +19176,7 @@
         <v>1306</v>
       </c>
       <c r="C1306" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.3">
@@ -19187,7 +19187,7 @@
         <v>1307</v>
       </c>
       <c r="C1307" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.3">
@@ -19242,7 +19242,7 @@
         <v>1312</v>
       </c>
       <c r="C1312" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.3">
@@ -19253,7 +19253,7 @@
         <v>1313</v>
       </c>
       <c r="C1313" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
